--- a/03 - Interactive Viz/amstat_dem.xlsx
+++ b/03 - Interactive Viz/amstat_dem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5820" windowWidth="28800" windowHeight="16780"/>
+    <workbookView xWindow="3760" yWindow="3220" windowWidth="28800" windowHeight="16780"/>
   </bookViews>
   <sheets>
     <sheet name="2.1 Taux de chômage" sheetId="1" r:id="rId1"/>
@@ -27,62 +27,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Suisse alémanique</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Espace Mittelland</t>
   </si>
   <si>
     <t>Berne</t>
   </si>
   <si>
+    <t>2.4</t>
+  </si>
+  <si>
     <t>Soleure</t>
   </si>
   <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Nordwestschweiz</t>
   </si>
   <si>
     <t>Bâle-Ville</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>Bâle-Campagne</t>
   </si>
   <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>Argovie</t>
   </si>
   <si>
+    <t>2.9</t>
+  </si>
+  <si>
     <t>Zürich</t>
   </si>
   <si>
     <t>Zurich</t>
   </si>
   <si>
+    <t>3.3</t>
+  </si>
+  <si>
     <t>Ostschweiz</t>
   </si>
   <si>
     <t>Glaris</t>
   </si>
   <si>
+    <t>1.8</t>
+  </si>
+  <si>
     <t>Schaffhouse</t>
   </si>
   <si>
     <t>Appenzell Rhodes-Extérieures</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>Appenzell Rhodes-Intérieures</t>
   </si>
   <si>
+    <t>0.7</t>
+  </si>
+  <si>
     <t>St-Gall</t>
   </si>
   <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>Grisons</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>Thurgovie</t>
   </si>
   <si>
@@ -95,6 +131,9 @@
     <t>Uri</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
     <t>Schwyz</t>
   </si>
   <si>
@@ -104,9 +143,15 @@
     <t>Nidwald</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Zoug</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>Suisse romande et Tessin</t>
   </si>
   <si>
@@ -116,40 +161,61 @@
     <t>Vaud</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>Valais</t>
   </si>
   <si>
     <t>Genève</t>
   </si>
   <si>
+    <t>5.2</t>
+  </si>
+  <si>
     <t>Fribourg</t>
   </si>
   <si>
+    <t>2.7</t>
+  </si>
+  <si>
     <t>Neuchâtel</t>
   </si>
   <si>
+    <t>5.1</t>
+  </si>
+  <si>
     <t>Jura</t>
   </si>
   <si>
+    <t>4.4</t>
+  </si>
+  <si>
     <t>Ticino</t>
   </si>
   <si>
     <t>Tessin</t>
   </si>
   <si>
-    <t/>
+    <t>3.1</t>
   </si>
   <si>
     <t>ling_reg</t>
   </si>
   <si>
-    <t>ref</t>
+    <t>reg</t>
   </si>
   <si>
     <t>cant</t>
   </si>
   <si>
-    <t>rate</t>
+    <t>rate_chom</t>
+  </si>
+  <si>
+    <t>nbr_chom</t>
+  </si>
+  <si>
+    <t>nbr_dem</t>
   </si>
 </sst>
 </file>
@@ -183,8 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,31 +532,37 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -497,370 +570,708 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>3.2306340606238102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13658</v>
+      </c>
+      <c r="F2" s="1">
+        <v>18385</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4.5337542751907396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3801</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6628</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3455</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5168</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4082</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5540</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10684</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15145</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27225</v>
+      </c>
+      <c r="F7" s="1">
+        <v>34156</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>416</v>
+      </c>
+      <c r="F8" s="1">
+        <v>713</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1286</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2328</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>523</v>
+      </c>
+      <c r="F10" s="1">
+        <v>866</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6127</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10363</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1166</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2590</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>5.2353111432706232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>3.8000979911807931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>4.1108667165855479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>4.1401212121212128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E14" s="1">
+        <v>3058</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5618</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3885</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6756</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1">
+        <v>257</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1455</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2229</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>153</v>
+      </c>
+      <c r="F18" s="1">
+        <v>319</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1">
+        <v>248</v>
+      </c>
+      <c r="F19" s="1">
+        <v>436</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1543</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2615</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>17155</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24649</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>3.0850961538461541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>5.4307931570762049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2.8149139579349907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>1.1516129032258065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>3.7210053859964098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2.4433962264150946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>3.674296926095487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>2.9562934362934365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>1.3767857142857143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>2.6043298969072164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>1.4594771241830062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>1.7580645161290325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>3.8979261179520415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>6.1784144564266974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>4.6668604651162786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="1">
+        <v>4816</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8027</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>6.586921693640674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12234</v>
+      </c>
+      <c r="F23" s="1">
+        <v>15497</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>4.7379982086878645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4466</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7837</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>6.8351625158294631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4738</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6350</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>6.4546016059295868</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1619</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2375</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27">
-        <v>5.1696462898885045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>4.3619160615458545</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5202</v>
+      </c>
+      <c r="F27" s="1">
+        <v>8675</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
